--- a/s2data1_tbl_commerce.xlsx
+++ b/s2data1_tbl_commerce.xlsx
@@ -1,77 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chase Polak\Downloads\GEOG 4300\Version 2 CURO-GICH\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A417CE-8AB7-4664-ACC6-F05003ADEAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>landlord</t>
-  </si>
-  <si>
-    <t>dilapidated</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>well maintained</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>intown_landlord</t>
-  </si>
-  <si>
-    <t>outtown_landlord</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>singleowner</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>minor repairs 
-needed</t>
-  </si>
-  <si>
-    <t>moderate rehabilitation 
-needed</t>
-  </si>
-  <si>
-    <t>substantial rehabilitation
- needed</t>
-  </si>
-  <si>
-    <t>p-value = 3.497e-05</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">primary_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outtown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,49 +63,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -129,70 +80,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85571438-7AA5-4D01-B523-753D40D1848C}" name="Table1" displayName="Table1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H5" xr:uid="{1B8F7EAD-9615-4A15-9C98-153D0A322B62}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2D2F0617-C640-4DEF-A476-95B051DCBB19}" name="City"/>
-    <tableColumn id="2" xr3:uid="{CEDD8FB0-11B7-4D56-BFA2-42B6443D7120}" name="landlord"/>
-    <tableColumn id="3" xr3:uid="{6629EE1C-03C1-44A2-8427-F102CD52CBDB}" name="dilapidated"/>
-    <tableColumn id="6" xr3:uid="{6C11E11C-F732-45FB-8D4A-D73A148550C8}" name="moderate rehabilitation _x000a_needed"/>
-    <tableColumn id="5" xr3:uid="{9FE0B999-2BFB-4C6C-8FF5-7DD40FA9E394}" name="substantial rehabilitation_x000a_ needed"/>
-    <tableColumn id="4" xr3:uid="{F05B7503-AB96-49D8-B4D1-4AEB10A3B58A}" name="minor repairs _x000a_needed"/>
-    <tableColumn id="7" xr3:uid="{51E9B237-33E1-4378-8033-108C5F9D721A}" name="sound"/>
-    <tableColumn id="8" xr3:uid="{81153F12-7F23-48B8-9AF2-04C024C10793}" name="well maintained"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,165 +372,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+      <c r="C4" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="E2">
-        <v>0.9</v>
-      </c>
-      <c r="F2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G2">
-        <v>14.9</v>
-      </c>
-      <c r="H2">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <v>14.9</v>
-      </c>
-      <c r="E3">
-        <v>3.5</v>
-      </c>
-      <c r="F3">
-        <v>10.5</v>
-      </c>
-      <c r="G3">
-        <v>16.7</v>
-      </c>
-      <c r="H3">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="E4">
-        <v>0.8</v>
-      </c>
-      <c r="F4">
-        <v>5.3</v>
-      </c>
-      <c r="G4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H4">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>6.7</v>
-      </c>
-      <c r="G5">
-        <v>17.8</v>
-      </c>
-      <c r="H5">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I8" s="4" t="s">
-        <v>13</v>
+      <c r="F5" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>